--- a/src/test/java/resources/Test_Data/excel_data.xlsx
+++ b/src/test/java/resources/Test_Data/excel_data.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,8 +682,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/src/test/java/resources/Test_Data/excel_data.xlsx
+++ b/src/test/java/resources/Test_Data/excel_data.xlsx
@@ -66,9 +66,6 @@
     <t>MobileNumber</t>
   </si>
   <si>
-    <t>TestUser</t>
-  </si>
-  <si>
     <t>password123</t>
   </si>
   <si>
@@ -135,7 +132,10 @@
     <t>anotherUser@example.com</t>
   </si>
   <si>
-    <t>testUser@example.com</t>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>QATester@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,46 +579,46 @@
     </row>
     <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3">
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3">
         <v>1990</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="O2" s="3">
         <v>90001</v>
@@ -629,46 +629,46 @@
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="3">
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3">
         <v>1995</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="O3" s="3">
         <v>201301</v>
